--- a/학습자료/단답형/영어_단어_Day02.xlsx
+++ b/학습자료/단답형/영어_단어_Day02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,6 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>구분2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>구분</t>
         </is>
       </c>
@@ -489,11 +484,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -519,11 +509,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -549,11 +534,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -579,11 +559,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -609,11 +584,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -639,11 +609,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -669,11 +634,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -699,11 +659,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -729,11 +684,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -759,11 +709,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -789,11 +734,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -819,11 +759,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -849,11 +784,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -879,11 +809,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -909,11 +834,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -939,11 +859,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -969,11 +884,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -999,11 +909,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1029,11 +934,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1059,11 +959,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1089,11 +984,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1119,11 +1009,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1149,11 +1034,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1179,11 +1059,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1209,11 +1084,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1239,11 +1109,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1269,11 +1134,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1299,11 +1159,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1329,11 +1184,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1359,11 +1209,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1389,11 +1234,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1419,11 +1259,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1449,11 +1284,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1479,11 +1309,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1509,11 +1334,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1539,11 +1359,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1569,11 +1384,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1599,11 +1409,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1629,11 +1434,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1659,11 +1459,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1689,11 +1484,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1719,11 +1509,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1749,11 +1534,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1779,11 +1559,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1809,11 +1584,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1839,11 +1609,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1869,11 +1634,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1899,11 +1659,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1929,11 +1684,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1957,11 +1707,6 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>유의어</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Day02_유의어</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/영어_단어_Day02.xlsx
+++ b/학습자료/단답형/영어_단어_Day02.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/영어_단어_Day02.xlsx
+++ b/학습자료/단답형/영어_단어_Day02.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,143 +446,143 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>날짜</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>오답가산점</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>reputable</t>
+          <t>contentment</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>평판 좋은, 존경할 만한</t>
+          <t>만족 / 희열</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>prestigious</t>
+          <t>serve out</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>평판 좋은, 존경할 만한</t>
+          <t>나눠주다 / 분배하다</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>creditable</t>
+          <t>burst into</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>평판 좋은, 존경할 만한</t>
+          <t>침입하다 / 난입하다</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>respectable</t>
+          <t>tranquility</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>평판 좋은, 존경할 만한</t>
+          <t>고요 / 평온</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>venerable</t>
+          <t>trespass</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>평판 좋은, 존경할 만한</t>
+          <t>침입하다 / 난입하다</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -598,41 +598,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>assured</t>
+          <t>carry on</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>자신감 있는</t>
+          <t>계속하다</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -648,16 +648,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -673,1041 +673,1041 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>buoyant</t>
+          <t>reputable</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>자신감 있는</t>
+          <t>평판 좋은 / 존경할 만한</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>line up</t>
+          <t>continue</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>배열하다, 일렬로 세우다</t>
+          <t>계속하다</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>arrange</t>
+          <t>creditable</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>배열하다, 일렬로 세우다</t>
+          <t>평판 좋은 / 존경할 만한</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>array</t>
+          <t>conviction</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>배열하다, 일렬로 세우다</t>
+          <t>신뢰 / 확신</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sequence</t>
+          <t>rush into</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>배열하다, 일렬로 세우다</t>
+          <t>침입하다 / 난입하다</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>align</t>
+          <t>keep on</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>배열하다, 일렬로 세우다</t>
+          <t>계속하다</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>give out</t>
+          <t>arrange</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>나눠주다, 분배하다</t>
+          <t>배열하다 / 일렬로 세우다</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hand out</t>
+          <t>go on</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>나눠주다, 분배하다</t>
+          <t>계속하다</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>give away</t>
+          <t>gratification</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>나눠주다, 분배하다</t>
+          <t>만족 / 희열</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>deal out</t>
+          <t>quiet</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>나눠주다, 분배하다</t>
+          <t>고요 / 평온</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>serve out</t>
+          <t>break out</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>나눠주다, 분배하다</t>
+          <t>침입하다 / 난입하다</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>carry on</t>
+          <t>faith</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>계속하다</t>
+          <t>신뢰 / 확신</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>keep on</t>
+          <t>composure</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>계속하다</t>
+          <t>고요 / 평온</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>go on</t>
+          <t>reliance</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>계속하다</t>
+          <t>신뢰 / 확신</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>stick at</t>
+          <t>delight</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>계속하다</t>
+          <t>만족 / 희열</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>continue</t>
+          <t>serenity</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>계속하다</t>
+          <t>고요 / 평온</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>break out</t>
+          <t>invade</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>침입하다, 난입하다</t>
+          <t>침입하다 / 난입하다</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>burst into</t>
+          <t>prestigious</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>침입하다, 난입하다</t>
+          <t>평판 좋은 / 존경할 만한</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>rush into</t>
+          <t>respectable</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>침입하다, 난입하다</t>
+          <t>평판 좋은 / 존경할 만한</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>invade</t>
+          <t>hand out</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>침입하다, 난입하다</t>
+          <t>나눠주다 / 분배하다</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>trespass</t>
+          <t>stick at</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>침입하다, 난입하다</t>
+          <t>계속하다</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>gratification</t>
+          <t>line up</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>만족, 희열</t>
+          <t>배열하다 / 일렬로 세우다</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>buoyant</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>만족, 희열</t>
+          <t>자신감 있는</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>contentment</t>
+          <t>silence</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>만족, 희열</t>
+          <t>고요 / 평온</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>euphoria</t>
+          <t>credence</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>만족, 희열</t>
+          <t>신뢰 / 확신</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>delight</t>
+          <t>assured</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>만족, 희열</t>
+          <t>자신감 있는</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>liveliness</t>
+          <t>vivacity</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>생기, 활기</t>
+          <t>생기 / 활기</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>spring</t>
+          <t>give away</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>생기, 활기</t>
+          <t>나눠주다 / 분배하다</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sparkle</t>
+          <t>satisfaction</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>생기, 활기</t>
+          <t>만족 / 희열</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vivacity</t>
+          <t>sparkle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>생기, 활기</t>
+          <t>생기 / 활기</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vigor</t>
+          <t>give out</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>생기, 활기</t>
+          <t>나눠주다 / 분배하다</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>spring</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>신뢰, 확신</t>
+          <t>생기 / 활기</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>faith</t>
+          <t>sequence</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>신뢰, 확신</t>
+          <t>배열하다 / 일렬로 세우다</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>credence</t>
+          <t>vigor</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>신뢰, 확신</t>
+          <t>생기 / 활기</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>reliance</t>
+          <t>deal out</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>신뢰, 확신</t>
+          <t>나눠주다 / 분배하다</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>conviction</t>
+          <t>align</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>신뢰, 확신</t>
+          <t>배열하다 / 일렬로 세우다</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tranquility</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>고요, 평온</t>
+          <t>신뢰 / 확신</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>silence</t>
+          <t>array</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>고요, 평온</t>
+          <t>배열하다 / 일렬로 세우다</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>quiet</t>
+          <t>euphoria</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>고요, 평온</t>
+          <t>만족 / 희열</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>serenity</t>
+          <t>venerable</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>고요, 평온</t>
+          <t>평판 좋은 / 존경할 만한</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>composure</t>
+          <t>liveliness</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>고요, 평온</t>
+          <t>생기 / 활기</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Day02</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
